--- a/Data gathering/Crowdsourcing_indications_results.xlsx
+++ b/Data gathering/Crowdsourcing_indications_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="20376" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Drug name</t>
   </si>
@@ -90,29 +90,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Axillary lymph node involvement / Axillary lymph node involvement following resection of primary breast cancer
-2. Acute lymphoblastic leukemia
-3. Acute myeloblastic leukemia
-4. Hodgkin’s lymphoma
-5. Non-Hodgkin’s lymphoma
-6. Metastatic breast cancer
-7. Metastatic Wilms’ tumor
-8. Metastatic neuroblastoma
-9. Metastatic soft tissue sarcoma
-10. Metastatic bone sarcoma
-11. Metastatic ovarian carcinoma
-12. Metastatic transitional cell bladder carcinoma
-13. Metastatic thyroid carcinoma
-14. Metastatic gastric carcinoma
-15. Metastatic bronchogenic carcinoma
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Non-hyperkeratotic actinic keratoses of the face
-2. Non-hyperkeratotic actinic keratoses of the scalp
-</t>
-  </si>
-  <si>
     <t>BUSULFAN</t>
   </si>
   <si>
@@ -126,9 +103,6 @@
   </si>
   <si>
     <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=03dc50f9-c7bd-4c0c-8bbb-c1216ec90c95</t>
-  </si>
-  <si>
-    <t>1. Chronic myelogenous leukemia.</t>
   </si>
   <si>
     <t>TOPOTECAN</t>
@@ -150,13 +124,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Small cell lung cancer  / Small cell lung cancer sensitive disease
-2. Stage IV-B carcinoma of the cervix
-3. Recurrent carcinoma of the cervix
-4. Persistent carcinoma of the cervix
-</t>
-  </si>
-  <si>
     <t>MELPHALAN</t>
   </si>
   <si>
@@ -172,18 +139,10 @@
     <t>Melphalan Tablets USP are indicated for the palliative treatment of multiple myeloma and for the palliation of non-resectable epithelial carcinoma of the ovary.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Multiple myeloma
-2. Non-resectable epithelial carcinoma of the ovary
-</t>
-  </si>
-  <si>
     <t>FLUDARABINE</t>
   </si>
   <si>
     <t>Fludarabine Phosphate for Injection, USP is indicated for the treatment of patients with B-cell chronic lymphocytic leukemia (CLL) who have not responded to or whose disease has progressed during treatment with at least one standard alkylating-agent containing regimen.  The safety and effectiveness of Fludarabine Phosphate for Injection, USP in previously untreated or non-refractory patients with CLL have not been established.</t>
-  </si>
-  <si>
-    <t>1. B-cell chronic lymphocytic leukemia</t>
   </si>
   <si>
     <t>DB01073</t>
@@ -216,14 +175,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Colorectal Cancer
-2. Dukes’ C colon cancer
-3. Metastatic colorectal carcinoma
-4. Breast Cancer
-5. Metastatic breast cancer
-</t>
-  </si>
-  <si>
     <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=de1c8271-64d8-4ea5-85e8-871faa4d7632</t>
   </si>
   <si>
@@ -239,11 +190,6 @@
     <t>Matulane is indicated for use in combination with other anticancer drugs for the treatment of Stage III and IV Hodgkin's disease. Matulane is used as part of the MOPP (nitrogen mustard, vincristine, procarbazine, prednisone) regimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stage III  Hodgkin’s disease
-2. Stage IV Hodgkin’s disease
-</t>
-  </si>
-  <si>
     <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=31c9691c-aa14-426d-b67f-f8d25e7200ce</t>
   </si>
   <si>
@@ -259,18 +205,6 @@
     <t>Idarubicin hydrochloride injection in combination with other approved antileukemic drugs is indicated for the treatment of acute myeloid leukemia (AML) in adults. This includes French-American-British (FAB) classifications M1 through M7.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Acute myeloid leukemia 
-2. Acute myeloblastic leukemia with minimal maturation (M1)
-3. Acute myeloblastic leukemia with maturation (M2)
-4. Acute promyelocytic leukemia (M3)
-5. Acute myelomonocytic leukemia (M4)
-6. Acute myelomonocytic leukemia with eosinophilia (M4 eos)
-7. Acute monocytic leukemia (M5)
-8. Acute erythroid leukemia (M6)
-9. Acute megakaryoblastic leukemia (M7)
-</t>
-  </si>
-  <si>
     <t>IFOSFAMIDE</t>
   </si>
   <si>
@@ -286,9 +220,168 @@
     <t>Ifosfamide for Injection is indicated for use in combination with certain other approved antineoplastic agents for third-line chemotherapy of germ cell testicular cancer. It should be used in combination with mesna for prophylaxis of hemorrhagic cystitis.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Germ cell testicular cancer 
-2. Hemorrhagic cystitis
-</t>
+    <t xml:space="preserve">Non-hyperkeratotic actinic keratoses of the face,
+Non-hyperkeratotic actinic keratoses of the scalp
+</t>
+  </si>
+  <si>
+    <t>Axillary lymph node involvement, Axillary lymph node involvement following resection of primary breast cancer, Acute lymphoblastic leukemia, Acute myeloblastic leukemia, Hodgkin’s lymphoma, Non-Hodgkin’s lymphoma, Metastatic breast cancer, Metastatic Wilms’ tumor, Metastatic neuroblastoma, Metastatic soft tissue sarcoma, Metastatic bone sarcoma, Metastatic ovarian carcinoma, Metastatic transitional cell bladder carcinoma, Metastatic thyroid carcinoma, Metastatic gastric carcinoma, Metastatic bronchogenic carcinoma</t>
+  </si>
+  <si>
+    <t>Chronic myelogenous leukemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small cell lung cancer, Small cell lung cancer sensitive disease, Stage IV-B carcinoma of the cervix, Recurrent carcinoma of the cervix, Persistent carcinoma of the cervix
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple myeloma, Non-resectable epithelial carcinoma of the ovary
+</t>
+  </si>
+  <si>
+    <t>B-cell chronic lymphocytic leukemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorectal Cancer, Dukes’ C colon cancer, Metastatic colorectal carcinoma, Breast Cancer, Metastatic breast cancer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute myeloid leukemia, Acute myeloblastic leukemia with minimal maturation (M1),
+Acute myeloblastic leukemia with maturation (M2), Acute promyelocytic leukemia (M3), Acute myelomonocytic leukemia (M4), Acute myelomonocytic leukemia with eosinophilia (M4 eos), Acute monocytic leukemia (M5), Acute erythroid leukemia (M6), Acute megakaryoblastic leukemia (M7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germ cell testicular cancer, Hemorrhagic cystitis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage III Hodgkin’s disease, Stage IV Hodgkin’s disease
+</t>
+  </si>
+  <si>
+    <t>MECAMYLAMINE</t>
+  </si>
+  <si>
+    <t>DB00657</t>
+  </si>
+  <si>
+    <t>C02BB01</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=b87994ee-26a5-4d00-99e7-796bc17961f1</t>
+  </si>
+  <si>
+    <t>For the management of moderately severe to severe essential hypertension and in uncomplicated cases of malignant hypertension</t>
+  </si>
+  <si>
+    <t>Moderately severe essential hypertension, Severe essential hypertension, Malignant hypertension, Uncomplicated cases of malignant hypertension</t>
+  </si>
+  <si>
+    <t>CARMUSTINE</t>
+  </si>
+  <si>
+    <t>DB00262</t>
+  </si>
+  <si>
+    <t>L01AD01</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=783ec80b-95d7-44c7-8b90-fa7394f50f67</t>
+  </si>
+  <si>
+    <t>GLIADEL® Wafer is indicated in newly-diagnosed high-grade malignant glioma patients as an adjunct to surgery and radiation. GLIADEL® Wafer is indicated in recurrent glioblastoma multiforme patients as an adjunct to surgery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-grade malignant glioma, Glioblastoma multiforme, Recurrent glioblastoma multiforme
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Left Ventricular Dysfunction following Myocardial Infarction
+Carvedilol is indicated to reduce cardiovascular mortality in clinically stable patients who have survived the acute phase of a myocardial infarction and have a left ventricular ejection fraction of ≤40% (with or without symptomatic heart failure) [see Clinical Studies (14.1)].
+1.2 Hypertension
+Carvedilol is indicated for the management of essential hypertension. It can be used alone or in combination with other antihypertensive agents, especially thiazide-type diuretics [see Drug Interactions (7.2)].
+</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>DB01136</t>
+  </si>
+  <si>
+    <t>C07AG02</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=7d485d38-5d43-4a54-bc63-82734035c66a</t>
+  </si>
+  <si>
+    <t>Left Ventricular Dysfunction following Myocardial Infarction, Left Ventricular Dysfunction, Hypertension, Essential hypertension</t>
+  </si>
+  <si>
+    <t>AMILORIDE</t>
+  </si>
+  <si>
+    <t>DB00594</t>
+  </si>
+  <si>
+    <t>C03DB01</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=dc7aef5e-9585-45b9-b317-4af570202ef5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiloride hydrochloride and hydrochlorothiazide tablets are indicated in those patients with hypertension or with congestive heart failure who develop hypokalemia when thiazides or other kaliuretic diuretics are used alone, or in whom maintenance of normal serum potassium levels is considered to be clinically important, e.g., digitalized patients, or patients with significant cardiac arrhythmias.
+The use of potassium-conserving agents is often unnecessary in patients receiving diuretics for uncomplicated essential hypertension when such patients have a normal diet.
+Amiloride hydrochloride and hydrochlorothiazide tablets may be used alone or as an adjunct to other antihypertensive drugs, such as methyldopa or beta blockers. Since amiloride hydrochloride and hydrochlorothiazide enhances the action of these agents, dosage adjustments may be necessary to avoid an excessive fall in blood pressure and other unwanted side effects.
+This fixed combination drug is not indicated for the initial therapy of edema or hypertension except in individuals in whom the development of hypokalemia cannot be risked.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension, Congestive heart failure, Cardiac arrhythmia
+</t>
+  </si>
+  <si>
+    <t>AZACITIDINE</t>
+  </si>
+  <si>
+    <t>DB00928</t>
+  </si>
+  <si>
+    <t>L01BC07</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=722d67e6-df13-4ad1-9261-ca1daf722e9d</t>
+  </si>
+  <si>
+    <t>1.1 Myelodysplastic Syndromes (MDS)
+Azacitidine for injection is indicated for treatment of patients with the following French-American-British (FAB) myelodysplastic syndrome subtypes: refractory anemia (RA) or refractory anemia with ringed sideroblasts (if accompanied by neutropenia or thrombocytopenia or requiring transfusions), refractory anemia with excess blasts (RAEB), refractory anemia with excess blasts in transformation (RAEB-T), and chronic myelomonocytic leukemia (CMMoL).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myelodysplastic Syndromes, Refractory anemia, Refractory anemia with ringed sideroblasts, Refractory anemia with excess blasts, Refractory anemia with excess blasts in transformation, Chronic myelomonocytic leukemia
+</t>
+  </si>
+  <si>
+    <t>BLEOMYCIN</t>
+  </si>
+  <si>
+    <t>DB00290</t>
+  </si>
+  <si>
+    <t>L01DC01</t>
+  </si>
+  <si>
+    <t>https://dailymed.nlm.nih.gov/dailymed/drugInfo.cfm?setid=b5806c40-12ce-48e3-8abd-9f8997ef4428</t>
+  </si>
+  <si>
+    <t>Bleomycin for Injection, USP should be considered a palliative treatment.  It has been shown to be useful in the management of the following neoplasms either as a single agent or in proven combinations with other approved chemotherapeutic agents:
+Squamous Cell Carcinoma: Head and neck (including mouth, tongue, tonsil, nasopharynx, oropharynx, sinus, palate, lip, buccal mucosa, gingivae, epiglottis, skin, larynx), penis, cervix, and vulva.  The response to Bleomycin for Injection is poorer in patients with previously irradiated head and neck cancer.
+Lymphomas: Hodgkin’s disease, non-Hodgkin’s lymphoma.
+Testicular Carcinoma: Embryonal cell, choriocarcinoma, and teratocarcinoma.
+Bleomycin for Injection, USP has also been shown to be useful in the management of:
+Malignant Pleural Effusion: Bleomycin for Injection is effective as a sclerosing agent for the treatment of malignant pleural effusion and prevention of recurrent pleural effusions.</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma, Squamous Cell Carcinoma of the head, Squamous Cell Carcinoma of the neck, Squamous Cell Carcinoma of the mouth, Squamous Cell Carcinoma of the tongue, Squamous Cell Carcinoma of the tonsil, Squamous Cell Carcinoma of the nasopharynx, Squamous Cell Carcinoma of the oropharanyx, Squamous Cell Carcinoma of the sinus, Squamous Cell Carcinoma of the palate, Squamous Cell Carcinoma of the lip, Squamous Cell Carcinoma of the buccal mucosa, Squamous Cell Carcinoma of the gingivae, Squamous Cell Carcinoma of the epiglottis, Squamous Cell Carcinoma of the skin, Squamous Cell Carcinoma of the larynx, Squamous Cell Carcinoma of the penis, Squamous Cell Carcinoma of the cervix, Squamous Cell Carcinoma of the vulva, Lymphoma, Hodgkin’s disease, Non-hodgkin’s lymphoma, Testicular Carcinoma, Embryonal cell carcinoma, Choriocarcinoma, Teratocarcinoma of the testis, Malignant Pleural Effusion</t>
   </si>
 </sst>
 </file>
@@ -658,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -672,7 +765,7 @@
     <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -696,14 +789,14 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -723,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="276" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="264" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -746,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -755,222 +848,336 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="408" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:8" ht="144" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="276" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
